--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H2">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I2">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J2">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.35839113954773</v>
+        <v>1.379781</v>
       </c>
       <c r="N2">
-        <v>1.35839113954773</v>
+        <v>4.139343</v>
       </c>
       <c r="O2">
-        <v>0.02674077504050332</v>
+        <v>0.0234398703721191</v>
       </c>
       <c r="P2">
-        <v>0.02674077504050332</v>
+        <v>0.0234398703721191</v>
       </c>
       <c r="Q2">
-        <v>2.045252296774074</v>
+        <v>4.421849480334</v>
       </c>
       <c r="R2">
-        <v>2.045252296774074</v>
+        <v>39.796645323006</v>
       </c>
       <c r="S2">
-        <v>0.0002626514891713502</v>
+        <v>0.0004624761667686062</v>
       </c>
       <c r="T2">
-        <v>0.0002626514891713502</v>
+        <v>0.0004624761667686061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H3">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I3">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J3">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>49.4401043225405</v>
+        <v>1.27306</v>
       </c>
       <c r="N3">
-        <v>49.4401043225405</v>
+        <v>3.81918</v>
       </c>
       <c r="O3">
-        <v>0.9732592249594967</v>
+        <v>0.02162688236461434</v>
       </c>
       <c r="P3">
-        <v>0.9732592249594967</v>
+        <v>0.02162688236461434</v>
       </c>
       <c r="Q3">
-        <v>74.43915377134482</v>
+        <v>4.079835640173333</v>
       </c>
       <c r="R3">
-        <v>74.43915377134482</v>
+        <v>36.71852076155999</v>
       </c>
       <c r="S3">
-        <v>0.009559483014167508</v>
+        <v>0.0004267053314014627</v>
       </c>
       <c r="T3">
-        <v>0.009559483014167508</v>
+        <v>0.0004267053314014627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>143.941774450522</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H4">
-        <v>143.941774450522</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I4">
-        <v>0.9390110009825823</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J4">
-        <v>0.9390110009825823</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.35839113954773</v>
+        <v>55.34225733333333</v>
       </c>
       <c r="N4">
-        <v>1.35839113954773</v>
+        <v>166.026772</v>
       </c>
       <c r="O4">
-        <v>0.02674077504050332</v>
+        <v>0.9401603138424074</v>
       </c>
       <c r="P4">
-        <v>0.02674077504050332</v>
+        <v>0.9401603138424074</v>
       </c>
       <c r="Q4">
-        <v>195.5292310243669</v>
+        <v>177.3579516096471</v>
       </c>
       <c r="R4">
-        <v>195.5292310243669</v>
+        <v>1596.221564486824</v>
       </c>
       <c r="S4">
-        <v>0.02510988193783307</v>
+        <v>0.01854966478871776</v>
       </c>
       <c r="T4">
-        <v>0.02510988193783307</v>
+        <v>0.01854966478871776</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>143.941774450522</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H5">
-        <v>143.941774450522</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I5">
-        <v>0.9390110009825823</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J5">
-        <v>0.9390110009825823</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>49.4401043225405</v>
+        <v>0.8696043333333333</v>
       </c>
       <c r="N5">
-        <v>49.4401043225405</v>
+        <v>2.608813</v>
       </c>
       <c r="O5">
-        <v>0.9732592249594967</v>
+        <v>0.01477293342085909</v>
       </c>
       <c r="P5">
-        <v>0.9732592249594967</v>
+        <v>0.01477293342085909</v>
       </c>
       <c r="Q5">
-        <v>7116.496345205402</v>
+        <v>2.786862168305111</v>
       </c>
       <c r="R5">
-        <v>7116.496345205402</v>
+        <v>25.081759514746</v>
       </c>
       <c r="S5">
-        <v>0.9139011190447492</v>
+        <v>0.0002914747185860432</v>
       </c>
       <c r="T5">
-        <v>0.9139011190447492</v>
+        <v>0.0002914747185860432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7834395696704159</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H6">
-        <v>0.7834395696704159</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I6">
-        <v>0.00511080523589386</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J6">
-        <v>0.00511080523589386</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.35839113954773</v>
+        <v>1.379781</v>
       </c>
       <c r="N6">
-        <v>1.35839113954773</v>
+        <v>4.139343</v>
       </c>
       <c r="O6">
-        <v>0.02674077504050332</v>
+        <v>0.0234398703721191</v>
       </c>
       <c r="P6">
-        <v>0.02674077504050332</v>
+        <v>0.0234398703721191</v>
       </c>
       <c r="Q6">
-        <v>1.064217369811379</v>
+        <v>200.363678648523</v>
       </c>
       <c r="R6">
-        <v>1.064217369811379</v>
+        <v>1803.273107836707</v>
       </c>
       <c r="S6">
-        <v>0.0001366668930888642</v>
+        <v>0.02095580739985444</v>
       </c>
       <c r="T6">
-        <v>0.0001366668930888642</v>
+        <v>0.02095580739985444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7834395696704159</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H7">
-        <v>0.7834395696704159</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I7">
-        <v>0.00511080523589386</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J7">
-        <v>0.00511080523589386</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>49.4401043225405</v>
+        <v>1.27306</v>
       </c>
       <c r="N7">
-        <v>49.4401043225405</v>
+        <v>3.81918</v>
       </c>
       <c r="O7">
-        <v>0.9732592249594967</v>
+        <v>0.02162688236461434</v>
       </c>
       <c r="P7">
-        <v>0.9732592249594967</v>
+        <v>0.02162688236461434</v>
       </c>
       <c r="Q7">
-        <v>38.7333340549116</v>
+        <v>184.8662829393133</v>
       </c>
       <c r="R7">
-        <v>38.7333340549116</v>
+        <v>1663.79654645382</v>
       </c>
       <c r="S7">
-        <v>0.004974138342804996</v>
+        <v>0.01933495255294767</v>
       </c>
       <c r="T7">
-        <v>0.004974138342804996</v>
+        <v>0.01933495255294767</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.05997149102982</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H8">
-        <v>7.05997149102982</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I8">
-        <v>0.04605605927818521</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J8">
-        <v>0.04605605927818521</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.35839113954773</v>
+        <v>55.34225733333333</v>
       </c>
       <c r="N8">
-        <v>1.35839113954773</v>
+        <v>166.026772</v>
       </c>
       <c r="O8">
-        <v>0.02674077504050332</v>
+        <v>0.9401603138424074</v>
       </c>
       <c r="P8">
-        <v>0.02674077504050332</v>
+        <v>0.9401603138424074</v>
       </c>
       <c r="Q8">
-        <v>9.590202718874483</v>
+        <v>8036.476994551937</v>
       </c>
       <c r="R8">
-        <v>9.590202718874483</v>
+        <v>72328.29295096744</v>
       </c>
       <c r="S8">
-        <v>0.001231574720410036</v>
+        <v>0.8405259137142164</v>
       </c>
       <c r="T8">
-        <v>0.001231574720410036</v>
+        <v>0.8405259137142165</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>145.2141163333334</v>
+      </c>
+      <c r="H9">
+        <v>435.6423490000001</v>
+      </c>
+      <c r="I9">
+        <v>0.8940240311559332</v>
+      </c>
+      <c r="J9">
+        <v>0.8940240311559333</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.8696043333333333</v>
+      </c>
+      <c r="N9">
+        <v>2.608813</v>
+      </c>
+      <c r="O9">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="P9">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="Q9">
+        <v>126.2788248246375</v>
+      </c>
+      <c r="R9">
+        <v>1136.509423421737</v>
+      </c>
+      <c r="S9">
+        <v>0.01320735748891466</v>
+      </c>
+      <c r="T9">
+        <v>0.01320735748891466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.05997149102982</v>
-      </c>
-      <c r="H9">
-        <v>7.05997149102982</v>
-      </c>
-      <c r="I9">
-        <v>0.04605605927818521</v>
-      </c>
-      <c r="J9">
-        <v>0.04605605927818521</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>49.4401043225405</v>
-      </c>
-      <c r="N9">
-        <v>49.4401043225405</v>
-      </c>
-      <c r="O9">
-        <v>0.9732592249594967</v>
-      </c>
-      <c r="P9">
-        <v>0.9732592249594967</v>
-      </c>
-      <c r="Q9">
-        <v>349.0457270306761</v>
-      </c>
-      <c r="R9">
-        <v>349.0457270306761</v>
-      </c>
-      <c r="S9">
-        <v>0.04482448455777517</v>
-      </c>
-      <c r="T9">
-        <v>0.04482448455777517</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8052786666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.415836</v>
+      </c>
+      <c r="I10">
+        <v>0.004957771998726471</v>
+      </c>
+      <c r="J10">
+        <v>0.004957771998726472</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.379781</v>
+      </c>
+      <c r="N10">
+        <v>4.139343</v>
+      </c>
+      <c r="O10">
+        <v>0.0234398703721191</v>
+      </c>
+      <c r="P10">
+        <v>0.0234398703721191</v>
+      </c>
+      <c r="Q10">
+        <v>1.111108203972</v>
+      </c>
+      <c r="R10">
+        <v>9.999973835748001</v>
+      </c>
+      <c r="S10">
+        <v>0.0001162095329846703</v>
+      </c>
+      <c r="T10">
+        <v>0.0001162095329846703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.8052786666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.415836</v>
+      </c>
+      <c r="I11">
+        <v>0.004957771998726471</v>
+      </c>
+      <c r="J11">
+        <v>0.004957771998726472</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.27306</v>
+      </c>
+      <c r="N11">
+        <v>3.81918</v>
+      </c>
+      <c r="O11">
+        <v>0.02162688236461434</v>
+      </c>
+      <c r="P11">
+        <v>0.02162688236461434</v>
+      </c>
+      <c r="Q11">
+        <v>1.025168059386667</v>
+      </c>
+      <c r="R11">
+        <v>9.226512534479999</v>
+      </c>
+      <c r="S11">
+        <v>0.0001072211518070363</v>
+      </c>
+      <c r="T11">
+        <v>0.0001072211518070363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8052786666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.415836</v>
+      </c>
+      <c r="I12">
+        <v>0.004957771998726471</v>
+      </c>
+      <c r="J12">
+        <v>0.004957771998726472</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>55.34225733333333</v>
+      </c>
+      <c r="N12">
+        <v>166.026772</v>
+      </c>
+      <c r="O12">
+        <v>0.9401603138424074</v>
+      </c>
+      <c r="P12">
+        <v>0.9401603138424074</v>
+      </c>
+      <c r="Q12">
+        <v>44.56593919571022</v>
+      </c>
+      <c r="R12">
+        <v>401.093452761392</v>
+      </c>
+      <c r="S12">
+        <v>0.004661100478281778</v>
+      </c>
+      <c r="T12">
+        <v>0.004661100478281779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8052786666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.415836</v>
+      </c>
+      <c r="I13">
+        <v>0.004957771998726471</v>
+      </c>
+      <c r="J13">
+        <v>0.004957771998726472</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.8696043333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.608813</v>
+      </c>
+      <c r="O13">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="P13">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="Q13">
+        <v>0.7002738180742223</v>
+      </c>
+      <c r="R13">
+        <v>6.302464362668</v>
+      </c>
+      <c r="S13">
+        <v>7.324083565298566E-05</v>
+      </c>
+      <c r="T13">
+        <v>7.324083565298568E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>13.203389</v>
+      </c>
+      <c r="H14">
+        <v>39.610167</v>
+      </c>
+      <c r="I14">
+        <v>0.08128787583986632</v>
+      </c>
+      <c r="J14">
+        <v>0.08128787583986634</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.379781</v>
+      </c>
+      <c r="N14">
+        <v>4.139343</v>
+      </c>
+      <c r="O14">
+        <v>0.0234398703721191</v>
+      </c>
+      <c r="P14">
+        <v>0.0234398703721191</v>
+      </c>
+      <c r="Q14">
+        <v>18.217785277809</v>
+      </c>
+      <c r="R14">
+        <v>163.960067500281</v>
+      </c>
+      <c r="S14">
+        <v>0.001905377272511379</v>
+      </c>
+      <c r="T14">
+        <v>0.001905377272511379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>13.203389</v>
+      </c>
+      <c r="H15">
+        <v>39.610167</v>
+      </c>
+      <c r="I15">
+        <v>0.08128787583986632</v>
+      </c>
+      <c r="J15">
+        <v>0.08128787583986634</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.27306</v>
+      </c>
+      <c r="N15">
+        <v>3.81918</v>
+      </c>
+      <c r="O15">
+        <v>0.02162688236461434</v>
+      </c>
+      <c r="P15">
+        <v>0.02162688236461434</v>
+      </c>
+      <c r="Q15">
+        <v>16.80870640034</v>
+      </c>
+      <c r="R15">
+        <v>151.27835760306</v>
+      </c>
+      <c r="S15">
+        <v>0.001758003328458165</v>
+      </c>
+      <c r="T15">
+        <v>0.001758003328458165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>13.203389</v>
+      </c>
+      <c r="H16">
+        <v>39.610167</v>
+      </c>
+      <c r="I16">
+        <v>0.08128787583986632</v>
+      </c>
+      <c r="J16">
+        <v>0.08128787583986634</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>55.34225733333333</v>
+      </c>
+      <c r="N16">
+        <v>166.026772</v>
+      </c>
+      <c r="O16">
+        <v>0.9401603138424074</v>
+      </c>
+      <c r="P16">
+        <v>0.9401603138424074</v>
+      </c>
+      <c r="Q16">
+        <v>730.7053517101027</v>
+      </c>
+      <c r="R16">
+        <v>6576.348165390925</v>
+      </c>
+      <c r="S16">
+        <v>0.07642363486119137</v>
+      </c>
+      <c r="T16">
+        <v>0.07642363486119139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>13.203389</v>
+      </c>
+      <c r="H17">
+        <v>39.610167</v>
+      </c>
+      <c r="I17">
+        <v>0.08128787583986632</v>
+      </c>
+      <c r="J17">
+        <v>0.08128787583986634</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.8696043333333333</v>
+      </c>
+      <c r="N17">
+        <v>2.608813</v>
+      </c>
+      <c r="O17">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="P17">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="Q17">
+        <v>11.48172428908567</v>
+      </c>
+      <c r="R17">
+        <v>103.335518601771</v>
+      </c>
+      <c r="S17">
+        <v>0.001200860377705406</v>
+      </c>
+      <c r="T17">
+        <v>0.001200860377705406</v>
       </c>
     </row>
   </sheetData>
